--- a/_09_PtmConvTest/Исходные данные_26-03-2021.xlsx
+++ b/_09_PtmConvTest/Исходные данные_26-03-2021.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="45" windowWidth="28500" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="28500" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
     <sheet name="Для регрессии" sheetId="5" r:id="rId2"/>
     <sheet name="Для регрессии_2" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
+    <sheet name="Для регрессии_3" sheetId="2" r:id="rId4"/>
+    <sheet name="Для регрессии_3_1" sheetId="7" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Для регрессии'!$A$3:$F$155</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -45,16 +46,26 @@
   <si>
     <t>T_REGR</t>
   </si>
+  <si>
+    <t>Видеоадаптер GTX 1656</t>
+  </si>
+  <si>
+    <t>Видеоадаптер GT 710</t>
+  </si>
+  <si>
+    <t>T_GPU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,9 +74,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -104,9 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -116,15 +153,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008080"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,11 +467,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R219"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,6 +477,11 @@
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -4220,11 +4270,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q155"/>
+  <dimension ref="A1:Q155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4233,6 +4281,11 @@
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -7496,10 +7549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q138"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7508,7 +7561,12 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7525,7 +7583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7543,7 +7601,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -7561,7 +7619,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -7579,7 +7637,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8</v>
       </c>
@@ -7597,7 +7655,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10</v>
       </c>
@@ -7615,7 +7673,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>16</v>
       </c>
@@ -7633,7 +7691,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>20</v>
       </c>
@@ -7652,7 +7710,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>32</v>
       </c>
@@ -7671,7 +7729,7 @@
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>40</v>
       </c>
@@ -7690,7 +7748,7 @@
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>64</v>
       </c>
@@ -7709,7 +7767,7 @@
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>80</v>
       </c>
@@ -7728,7 +7786,7 @@
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>128</v>
       </c>
@@ -7747,7 +7805,7 @@
       </c>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>160</v>
       </c>
@@ -9857,23 +9915,2703 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:O19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="42.5703125" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>512</v>
+      </c>
+      <c r="E4" s="14">
+        <f>C4/D4</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="H4" s="12">
+        <f>G4*1000/(C4*D4*F4)</f>
+        <v>2.9199218749999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5" s="14">
+        <f>C5/D5</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>24.4</v>
+      </c>
+      <c r="H5" s="12">
+        <f>G5*1000/(C5*D5*F5)</f>
+        <v>2.3828124999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6" s="14">
+        <f>C6/D6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="13">
+        <v>24.6</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G6*1000/(C6*D6*F6)</f>
+        <v>2.4023437500000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <f>C7/D7</f>
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>43.8</v>
+      </c>
+      <c r="H7" s="12">
+        <f>G7*1000/(C7*D7*F7)</f>
+        <v>4.2773437499999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <f>C8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>51.6</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8*1000/(C8*D8*F8)</f>
+        <v>5.0390625000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f>C9/D9</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12">
+        <f>G9*1000/(C9*D9*F9)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>C10/D10</f>
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10" s="12">
+        <f>G10*1000/(C10*D10*F10)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>C11/D11</f>
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12">
+        <f>G11*1000/(C11*D11*F11)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>512</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f>C12/D12</f>
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12" s="12">
+        <f>G12*1000/(C12*D12*F12)</f>
+        <v>5.078125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>512</v>
+      </c>
+      <c r="E13" s="14">
+        <f>C13/D13</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F13">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="13">
+        <v>74.8</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13*1000/(C13*D13*F13)</f>
+        <v>2.4348958333333334E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="E14" s="14">
+        <f>C14/D14</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F14">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="13">
+        <v>65</v>
+      </c>
+      <c r="H14" s="12">
+        <f>G14*1000/(C14*D14*F14)</f>
+        <v>2.1158854166666668E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15" s="14">
+        <f>C15/D15</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F15">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>68.3</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15*1000/(C15*D15*F15)</f>
+        <v>2.2233072916666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <f>C16/D16</f>
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>3000</v>
+      </c>
+      <c r="G16">
+        <v>132</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16*1000/(C16*D16*F16)</f>
+        <v>4.296875E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <f>C17/D17</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G17*1000/(C17*D17*F17)</f>
+        <v>4.9479166666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f>C18/D18</f>
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <v>145</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18*1000/(C18*D18*F18)</f>
+        <v>4.7200520833333336E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f>C19/D19</f>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>3000</v>
+      </c>
+      <c r="G19">
+        <v>141</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19*1000/(C19*D19*F19)</f>
+        <v>4.58984375E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>C20/D20</f>
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <v>139</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20*1000/(C20*D20*F20)</f>
+        <v>4.5247395833333336E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f>C21/D21</f>
+        <v>256</v>
+      </c>
+      <c r="F21">
+        <v>3000</v>
+      </c>
+      <c r="G21">
+        <v>151</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21*1000/(C21*D21*F21)</f>
+        <v>4.9153645833333336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>512</v>
+      </c>
+      <c r="E22" s="14">
+        <f>C22/D22</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="13">
+        <v>119.7</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22*1000/(C22*D22*F22)</f>
+        <v>2.3378906250000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23" s="14">
+        <f>C23/D23</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+      <c r="G23" s="13">
+        <v>105</v>
+      </c>
+      <c r="H23" s="12">
+        <f>G23*1000/(C23*D23*F23)</f>
+        <v>2.05078125E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="E24" s="14">
+        <f>C24/D24</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F24">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="13">
+        <v>112.9</v>
+      </c>
+      <c r="H24" s="12">
+        <f>G24*1000/(C24*D24*F24)</f>
+        <v>2.2050781249999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <f>C25/D25</f>
+        <v>0.25</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
+      </c>
+      <c r="G25">
+        <v>206</v>
+      </c>
+      <c r="H25" s="12">
+        <f>G25*1000/(C25*D25*F25)</f>
+        <v>4.0234375000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <f>C26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>5000</v>
+      </c>
+      <c r="G26">
+        <v>250</v>
+      </c>
+      <c r="H26" s="12">
+        <f>G26*1000/(C26*D26*F26)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <f>C27/D27</f>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5000</v>
+      </c>
+      <c r="G27">
+        <v>242</v>
+      </c>
+      <c r="H27" s="12">
+        <f>G27*1000/(C27*D27*F27)</f>
+        <v>4.7265624999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <f>C28/D28</f>
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>5000</v>
+      </c>
+      <c r="G28">
+        <v>231</v>
+      </c>
+      <c r="H28" s="12">
+        <f>G28*1000/(C28*D28*F28)</f>
+        <v>4.5117187500000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <f>C29/D29</f>
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>5000</v>
+      </c>
+      <c r="G29">
+        <v>230</v>
+      </c>
+      <c r="H29" s="12">
+        <f>G29*1000/(C29*D29*F29)</f>
+        <v>4.4921875E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>512</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f>C30/D30</f>
+        <v>256</v>
+      </c>
+      <c r="F30">
+        <v>5000</v>
+      </c>
+      <c r="G30">
+        <v>251</v>
+      </c>
+      <c r="H30" s="12">
+        <f>G30*1000/(C30*D30*F30)</f>
+        <v>4.9023437500000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>512</v>
+      </c>
+      <c r="E31" s="14">
+        <f>C31/D31</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F31">
+        <v>7000</v>
+      </c>
+      <c r="G31" s="13">
+        <v>164.3</v>
+      </c>
+      <c r="H31" s="12">
+        <f>G31*1000/(C31*D31*F31)</f>
+        <v>2.2921316964285714E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="E32" s="14">
+        <f>C32/D32</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F32">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="13">
+        <v>145.5</v>
+      </c>
+      <c r="H32" s="12">
+        <f>G32*1000/(C32*D32*F32)</f>
+        <v>2.0298549107142856E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33" s="14">
+        <f>C33/D33</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33">
+        <v>7000</v>
+      </c>
+      <c r="G33" s="13">
+        <v>156.9</v>
+      </c>
+      <c r="H33" s="12">
+        <f>G33*1000/(C33*D33*F33)</f>
+        <v>2.1888950892857143E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <f>C34/D34</f>
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>7000</v>
+      </c>
+      <c r="G34">
+        <v>302</v>
+      </c>
+      <c r="H34" s="12">
+        <f>G34*1000/(C34*D34*F34)</f>
+        <v>4.2131696428571432E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f>C35/D35</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>7000</v>
+      </c>
+      <c r="G35">
+        <v>341</v>
+      </c>
+      <c r="H35" s="12">
+        <f>G35*1000/(C35*D35*F35)</f>
+        <v>4.7572544642857144E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f>C36/D36</f>
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>7000</v>
+      </c>
+      <c r="G36">
+        <v>337</v>
+      </c>
+      <c r="H36" s="12">
+        <f>G36*1000/(C36*D36*F36)</f>
+        <v>4.7014508928571432E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <f>C37/D37</f>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>7000</v>
+      </c>
+      <c r="G37">
+        <v>323</v>
+      </c>
+      <c r="H37" s="12">
+        <f>G37*1000/(C37*D37*F37)</f>
+        <v>4.5061383928571432E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f>C38/D38</f>
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>7000</v>
+      </c>
+      <c r="G38">
+        <v>324</v>
+      </c>
+      <c r="H38" s="12">
+        <f>G38*1000/(C38*D38*F38)</f>
+        <v>4.5200892857142856E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f>C39/D39</f>
+        <v>256</v>
+      </c>
+      <c r="F39">
+        <v>7000</v>
+      </c>
+      <c r="G39">
+        <v>349</v>
+      </c>
+      <c r="H39" s="12">
+        <f>G39*1000/(C39*D39*F39)</f>
+        <v>4.8688616071428568E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>512</v>
+      </c>
+      <c r="E40" s="14">
+        <f>C40/D40</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F40">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="13">
+        <v>305</v>
+      </c>
+      <c r="H40" s="12">
+        <f>G40*1000/(C40*D40*F40)</f>
+        <v>2.978515625E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>256</v>
+      </c>
+      <c r="E41" s="14">
+        <f>C41/D41</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41" s="13">
+        <v>217.4</v>
+      </c>
+      <c r="H41" s="12">
+        <f>G41*1000/(C41*D41*F41)</f>
+        <v>2.1230468749999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>128</v>
+      </c>
+      <c r="E42" s="14">
+        <f>C42/D42</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="13">
+        <v>219.7</v>
+      </c>
+      <c r="H42" s="12">
+        <f>G42*1000/(C42*D42*F42)</f>
+        <v>2.1455078124999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <f>C43/D43</f>
+        <v>0.25</v>
+      </c>
+      <c r="F43">
+        <v>10000</v>
+      </c>
+      <c r="G43">
+        <v>428</v>
+      </c>
+      <c r="H43" s="12">
+        <f>G43*1000/(C43*D43*F43)</f>
+        <v>4.1796874999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <f>C44/D44</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10000</v>
+      </c>
+      <c r="G44">
+        <v>501</v>
+      </c>
+      <c r="H44" s="12">
+        <f>G44*1000/(C44*D44*F44)</f>
+        <v>4.8925781250000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <f>C45/D45</f>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>10000</v>
+      </c>
+      <c r="G45">
+        <v>481</v>
+      </c>
+      <c r="H45" s="12">
+        <f>G45*1000/(C45*D45*F45)</f>
+        <v>4.6972656250000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <f>C46/D46</f>
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>10000</v>
+      </c>
+      <c r="G46">
+        <v>460</v>
+      </c>
+      <c r="H46" s="12">
+        <f>G46*1000/(C46*D46*F46)</f>
+        <v>4.4921875E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>256</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <f>C47/D47</f>
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>10000</v>
+      </c>
+      <c r="G47">
+        <v>457</v>
+      </c>
+      <c r="H47" s="12">
+        <f>G47*1000/(C47*D47*F47)</f>
+        <v>4.4628906250000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>512</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f>C48/D48</f>
+        <v>256</v>
+      </c>
+      <c r="F48">
+        <v>10000</v>
+      </c>
+      <c r="G48">
+        <v>498</v>
+      </c>
+      <c r="H48" s="12">
+        <f>G48*1000/(C48*D48*F48)</f>
+        <v>4.8632812499999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>512</v>
+      </c>
+      <c r="E49" s="14">
+        <f>C49/D49</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F49">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="13">
+        <v>840.1</v>
+      </c>
+      <c r="H49" s="12">
+        <f>G49*1000/(C49*D49*F49)</f>
+        <v>5.4694010416666668E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>256</v>
+      </c>
+      <c r="E50" s="14">
+        <f>C50/D50</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F50">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>480.5</v>
+      </c>
+      <c r="H50" s="12">
+        <f>G50*1000/(C50*D50*F50)</f>
+        <v>3.1282552083333331E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>128</v>
+      </c>
+      <c r="E51" s="14">
+        <f>C51/D51</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F51">
+        <v>15000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>413.2</v>
+      </c>
+      <c r="H51" s="12">
+        <f>G51*1000/(C51*D51*F51)</f>
+        <v>2.6901041666666667E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <f>C52/D52</f>
+        <v>0.25</v>
+      </c>
+      <c r="F52">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="13">
+        <v>455.6</v>
+      </c>
+      <c r="H52" s="12">
+        <f>G52*1000/(C52*D52*F52)</f>
+        <v>2.9661458333333335E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+      <c r="E53">
+        <f>C53/D53</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="13">
+        <v>494.1</v>
+      </c>
+      <c r="H53" s="12">
+        <f>G53*1000/(C53*D53*F53)</f>
+        <v>3.2167968749999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <f>C54/D54</f>
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>15000</v>
+      </c>
+      <c r="G54">
+        <v>471.7</v>
+      </c>
+      <c r="H54" s="12">
+        <f>G54*1000/(C54*D54*F54)</f>
+        <v>3.0709635416666665E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <f>C55/D55</f>
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>15000</v>
+      </c>
+      <c r="G55">
+        <v>475.3</v>
+      </c>
+      <c r="H55" s="12">
+        <f>G55*1000/(C55*D55*F55)</f>
+        <v>3.0944010416666667E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <f>C56/D56</f>
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <v>15000</v>
+      </c>
+      <c r="G56">
+        <v>472.4</v>
+      </c>
+      <c r="H56" s="12">
+        <f>G56*1000/(C56*D56*F56)</f>
+        <v>3.0755208333333332E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>512</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f>C57/D57</f>
+        <v>256</v>
+      </c>
+      <c r="F57">
+        <v>15000</v>
+      </c>
+      <c r="G57">
+        <v>493.7</v>
+      </c>
+      <c r="H57" s="12">
+        <f>G57*1000/(C57*D57*F57)</f>
+        <v>3.2141927083333334E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>128</v>
+      </c>
+      <c r="E58" s="14">
+        <f>C58/D58</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F58">
+        <v>20000</v>
+      </c>
+      <c r="G58" s="13">
+        <v>537.29999999999995</v>
+      </c>
+      <c r="H58" s="12">
+        <f>G58*1000/(C58*D58*F58)</f>
+        <v>2.6235351562499998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <f>C59/D59</f>
+        <v>0.25</v>
+      </c>
+      <c r="F59">
+        <v>20000</v>
+      </c>
+      <c r="G59" s="13">
+        <v>621.1</v>
+      </c>
+      <c r="H59" s="12">
+        <f>G59*1000/(C59*D59*F59)</f>
+        <v>3.03271484375E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>32</v>
+      </c>
+      <c r="E60">
+        <f>C60/D60</f>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>20000</v>
+      </c>
+      <c r="G60" s="13">
+        <v>660.8</v>
+      </c>
+      <c r="H60" s="12">
+        <f>G60*1000/(C60*D60*F60)</f>
+        <v>3.2265624999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <f>C61/D61</f>
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>20000</v>
+      </c>
+      <c r="G61">
+        <v>629.5</v>
+      </c>
+      <c r="H61" s="12">
+        <f>G61*1000/(C61*D61*F61)</f>
+        <v>3.0737304687500001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <f>C62/D62</f>
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>20000</v>
+      </c>
+      <c r="G62">
+        <v>632.20000000000005</v>
+      </c>
+      <c r="H62" s="12">
+        <f>G62*1000/(C62*D62*F62)</f>
+        <v>3.0869140624999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>128</v>
+      </c>
+      <c r="E63" s="14">
+        <f>C63/D63</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F63">
+        <v>22000</v>
+      </c>
+      <c r="G63" s="13">
+        <v>597.6</v>
+      </c>
+      <c r="H63" s="12">
+        <f>G63*1000/(C63*D63*F63)</f>
+        <v>2.6526988636363637E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <f>C64/D64</f>
+        <v>0.25</v>
+      </c>
+      <c r="F64">
+        <v>22000</v>
+      </c>
+      <c r="G64" s="13">
+        <v>680.9</v>
+      </c>
+      <c r="H64" s="12">
+        <f>G64*1000/(C64*D64*F64)</f>
+        <v>3.0224609374999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <f>C65/D65</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>22000</v>
+      </c>
+      <c r="G65" s="13">
+        <v>727.5</v>
+      </c>
+      <c r="H65" s="12">
+        <f>G65*1000/(C65*D65*F65)</f>
+        <v>3.2293146306818184E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <f>C66/D66</f>
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>22000</v>
+      </c>
+      <c r="G66">
+        <v>688.1</v>
+      </c>
+      <c r="H66" s="12">
+        <f>G66*1000/(C66*D66*F66)</f>
+        <v>3.0544211647727273E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>128</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <f>C67/D67</f>
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>22000</v>
+      </c>
+      <c r="G67">
+        <v>693.3</v>
+      </c>
+      <c r="H67" s="12">
+        <f>G67*1000/(C67*D67*F67)</f>
+        <v>3.0775035511363635E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C4:H67">
+    <sortCondition ref="F4:F67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>512</v>
+      </c>
+      <c r="E4" s="14">
+        <f>C4/D4</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="H4" s="12">
+        <f>G4*1000/(C4*D4*F4)</f>
+        <v>2.9199218749999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5" s="14">
+        <f>C5/D5</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>24.4</v>
+      </c>
+      <c r="H5" s="12">
+        <f>G5*1000/(C5*D5*F5)</f>
+        <v>2.3828124999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6" s="14">
+        <f>C6/D6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="13">
+        <v>24.6</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G6*1000/(C6*D6*F6)</f>
+        <v>2.4023437500000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7" s="14">
+        <f>C7/D7</f>
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>43.8</v>
+      </c>
+      <c r="H7" s="12">
+        <f>G7*1000/(C7*D7*F7)</f>
+        <v>4.2773437499999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14">
+        <f>C8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>51.6</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8*1000/(C8*D8*F8)</f>
+        <v>5.0390625000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14">
+        <f>C9/D9</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12">
+        <f>G9*1000/(C9*D9*F9)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14">
+        <f>C10/D10</f>
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10" s="12">
+        <f>G10*1000/(C10*D10*F10)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14">
+        <f>C11/D11</f>
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12">
+        <f>G11*1000/(C11*D11*F11)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>512</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <f>C12/D12</f>
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12" s="12">
+        <f>G12*1000/(C12*D12*F12)</f>
+        <v>5.078125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>512</v>
+      </c>
+      <c r="E13" s="14">
+        <f>C13/D13</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F13">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="13">
+        <v>74.8</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13*1000/(C13*D13*F13)</f>
+        <v>2.4348958333333334E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="E14" s="14">
+        <f>C14/D14</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F14">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="13">
+        <v>65</v>
+      </c>
+      <c r="H14" s="12">
+        <f>G14*1000/(C14*D14*F14)</f>
+        <v>2.1158854166666668E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15" s="14">
+        <f>C15/D15</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F15">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>68.3</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15*1000/(C15*D15*F15)</f>
+        <v>2.2233072916666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16" s="14">
+        <f>C16/D16</f>
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>3000</v>
+      </c>
+      <c r="G16">
+        <v>132</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16*1000/(C16*D16*F16)</f>
+        <v>4.296875E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14">
+        <f>C17/D17</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G17*1000/(C17*D17*F17)</f>
+        <v>4.9479166666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14">
+        <f>C18/D18</f>
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <v>145</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18*1000/(C18*D18*F18)</f>
+        <v>4.7200520833333336E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14">
+        <f>C19/D19</f>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>3000</v>
+      </c>
+      <c r="G19">
+        <v>141</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19*1000/(C19*D19*F19)</f>
+        <v>4.58984375E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14">
+        <f>C20/D20</f>
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <v>139</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20*1000/(C20*D20*F20)</f>
+        <v>4.5247395833333336E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14">
+        <f>C21/D21</f>
+        <v>256</v>
+      </c>
+      <c r="F21">
+        <v>3000</v>
+      </c>
+      <c r="G21">
+        <v>151</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21*1000/(C21*D21*F21)</f>
+        <v>4.9153645833333336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>512</v>
+      </c>
+      <c r="E22" s="14">
+        <f>C22/D22</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="13">
+        <v>119.7</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22*1000/(C22*D22*F22)</f>
+        <v>2.3378906250000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23" s="14">
+        <f>C23/D23</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+      <c r="G23" s="13">
+        <v>105</v>
+      </c>
+      <c r="H23" s="12">
+        <f>G23*1000/(C23*D23*F23)</f>
+        <v>2.05078125E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="E24" s="14">
+        <f>C24/D24</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F24">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="13">
+        <v>112.9</v>
+      </c>
+      <c r="H24" s="12">
+        <f>G24*1000/(C24*D24*F24)</f>
+        <v>2.2050781249999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25" s="14">
+        <f>C25/D25</f>
+        <v>0.25</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
+      </c>
+      <c r="G25">
+        <v>206</v>
+      </c>
+      <c r="H25" s="12">
+        <f>G25*1000/(C25*D25*F25)</f>
+        <v>4.0234375000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>5000</v>
+      </c>
+      <c r="G26">
+        <v>250</v>
+      </c>
+      <c r="H26" s="12">
+        <f>G26*1000/(C26*D26*F26)</f>
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27" s="14">
+        <f>C27/D27</f>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5000</v>
+      </c>
+      <c r="G27">
+        <v>242</v>
+      </c>
+      <c r="H27" s="12">
+        <f>G27*1000/(C27*D27*F27)</f>
+        <v>4.7265624999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
+        <f>C28/D28</f>
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>5000</v>
+      </c>
+      <c r="G28">
+        <v>231</v>
+      </c>
+      <c r="H28" s="12">
+        <f>G28*1000/(C28*D28*F28)</f>
+        <v>4.5117187500000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="14">
+        <f>C29/D29</f>
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>5000</v>
+      </c>
+      <c r="G29">
+        <v>230</v>
+      </c>
+      <c r="H29" s="12">
+        <f>G29*1000/(C29*D29*F29)</f>
+        <v>4.4921875E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>512</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14">
+        <f>C30/D30</f>
+        <v>256</v>
+      </c>
+      <c r="F30">
+        <v>5000</v>
+      </c>
+      <c r="G30">
+        <v>251</v>
+      </c>
+      <c r="H30" s="12">
+        <f>G30*1000/(C30*D30*F30)</f>
+        <v>4.9023437500000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>512</v>
+      </c>
+      <c r="E31" s="14">
+        <f>C31/D31</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F31">
+        <v>7000</v>
+      </c>
+      <c r="G31" s="13">
+        <v>164.3</v>
+      </c>
+      <c r="H31" s="12">
+        <f>G31*1000/(C31*D31*F31)</f>
+        <v>2.2921316964285714E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="E32" s="14">
+        <f>C32/D32</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F32">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="13">
+        <v>145.5</v>
+      </c>
+      <c r="H32" s="12">
+        <f>G32*1000/(C32*D32*F32)</f>
+        <v>2.0298549107142856E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33" s="14">
+        <f>C33/D33</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33">
+        <v>7000</v>
+      </c>
+      <c r="G33" s="13">
+        <v>156.9</v>
+      </c>
+      <c r="H33" s="12">
+        <f>G33*1000/(C33*D33*F33)</f>
+        <v>2.1888950892857143E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34" s="14">
+        <f>C34/D34</f>
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>7000</v>
+      </c>
+      <c r="G34">
+        <v>302</v>
+      </c>
+      <c r="H34" s="12">
+        <f>G34*1000/(C34*D34*F34)</f>
+        <v>4.2131696428571432E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14">
+        <f>C35/D35</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>7000</v>
+      </c>
+      <c r="G35">
+        <v>341</v>
+      </c>
+      <c r="H35" s="12">
+        <f>G35*1000/(C35*D35*F35)</f>
+        <v>4.7572544642857144E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" s="14">
+        <f>C36/D36</f>
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>7000</v>
+      </c>
+      <c r="G36">
+        <v>337</v>
+      </c>
+      <c r="H36" s="12">
+        <f>G36*1000/(C36*D36*F36)</f>
+        <v>4.7014508928571432E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14">
+        <f>C37/D37</f>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>7000</v>
+      </c>
+      <c r="G37">
+        <v>323</v>
+      </c>
+      <c r="H37" s="12">
+        <f>G37*1000/(C37*D37*F37)</f>
+        <v>4.5061383928571432E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14">
+        <f>C38/D38</f>
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>7000</v>
+      </c>
+      <c r="G38">
+        <v>324</v>
+      </c>
+      <c r="H38" s="12">
+        <f>G38*1000/(C38*D38*F38)</f>
+        <v>4.5200892857142856E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14">
+        <f>C39/D39</f>
+        <v>256</v>
+      </c>
+      <c r="F39">
+        <v>7000</v>
+      </c>
+      <c r="G39">
+        <v>349</v>
+      </c>
+      <c r="H39" s="12">
+        <f>G39*1000/(C39*D39*F39)</f>
+        <v>4.8688616071428568E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>512</v>
+      </c>
+      <c r="E40" s="14">
+        <f>C40/D40</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F40">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="13">
+        <v>305</v>
+      </c>
+      <c r="H40" s="12">
+        <f>G40*1000/(C40*D40*F40)</f>
+        <v>2.978515625E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>256</v>
+      </c>
+      <c r="E41" s="14">
+        <f>C41/D41</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41" s="13">
+        <v>217.4</v>
+      </c>
+      <c r="H41" s="12">
+        <f>G41*1000/(C41*D41*F41)</f>
+        <v>2.1230468749999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>128</v>
+      </c>
+      <c r="E42" s="14">
+        <f>C42/D42</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="13">
+        <v>219.7</v>
+      </c>
+      <c r="H42" s="12">
+        <f>G42*1000/(C42*D42*F42)</f>
+        <v>2.1455078124999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43" s="14">
+        <f>C43/D43</f>
+        <v>0.25</v>
+      </c>
+      <c r="F43">
+        <v>10000</v>
+      </c>
+      <c r="G43">
+        <v>428</v>
+      </c>
+      <c r="H43" s="12">
+        <f>G43*1000/(C43*D43*F43)</f>
+        <v>4.1796874999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44" s="14">
+        <f>C44/D44</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10000</v>
+      </c>
+      <c r="G44">
+        <v>501</v>
+      </c>
+      <c r="H44" s="12">
+        <f>G44*1000/(C44*D44*F44)</f>
+        <v>4.8925781250000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="14">
+        <f>C45/D45</f>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>10000</v>
+      </c>
+      <c r="G45">
+        <v>481</v>
+      </c>
+      <c r="H45" s="12">
+        <f>G45*1000/(C45*D45*F45)</f>
+        <v>4.6972656250000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" s="14">
+        <f>C46/D46</f>
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>10000</v>
+      </c>
+      <c r="G46">
+        <v>460</v>
+      </c>
+      <c r="H46" s="12">
+        <f>G46*1000/(C46*D46*F46)</f>
+        <v>4.4921875E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>256</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14">
+        <f>C47/D47</f>
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>10000</v>
+      </c>
+      <c r="G47">
+        <v>457</v>
+      </c>
+      <c r="H47" s="12">
+        <f>G47*1000/(C47*D47*F47)</f>
+        <v>4.4628906250000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>512</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="14">
+        <f>C48/D48</f>
+        <v>256</v>
+      </c>
+      <c r="F48">
+        <v>10000</v>
+      </c>
+      <c r="G48">
+        <v>498</v>
+      </c>
+      <c r="H48" s="12">
+        <f>G48*1000/(C48*D48*F48)</f>
+        <v>4.8632812499999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>512</v>
+      </c>
+      <c r="E49" s="14">
+        <f>C49/D49</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F49">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="13">
+        <v>840.1</v>
+      </c>
+      <c r="H49" s="12">
+        <f>G49*1000/(C49*D49*F49)</f>
+        <v>5.4694010416666668E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>256</v>
+      </c>
+      <c r="E50" s="14">
+        <f>C50/D50</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F50">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>480.5</v>
+      </c>
+      <c r="H50" s="12">
+        <f>G50*1000/(C50*D50*F50)</f>
+        <v>3.1282552083333331E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>128</v>
+      </c>
+      <c r="E51" s="14">
+        <f>C51/D51</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F51">
+        <v>15000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>413.2</v>
+      </c>
+      <c r="H51" s="12">
+        <f>G51*1000/(C51*D51*F51)</f>
+        <v>2.6901041666666667E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52" s="14">
+        <f>C52/D52</f>
+        <v>0.25</v>
+      </c>
+      <c r="F52">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="13">
+        <v>455.6</v>
+      </c>
+      <c r="H52" s="12">
+        <f>G52*1000/(C52*D52*F52)</f>
+        <v>2.9661458333333335E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+      <c r="E53" s="14">
+        <f>C53/D53</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="13">
+        <v>494.1</v>
+      </c>
+      <c r="H53" s="12">
+        <f>G53*1000/(C53*D53*F53)</f>
+        <v>3.2167968749999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54" s="14">
+        <f>C54/D54</f>
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>15000</v>
+      </c>
+      <c r="G54">
+        <v>471.7</v>
+      </c>
+      <c r="H54" s="12">
+        <f>G54*1000/(C54*D54*F54)</f>
+        <v>3.0709635416666665E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>128</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" s="14">
+        <f>C55/D55</f>
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>15000</v>
+      </c>
+      <c r="G55">
+        <v>475.3</v>
+      </c>
+      <c r="H55" s="12">
+        <f>G55*1000/(C55*D55*F55)</f>
+        <v>3.0944010416666667E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" s="14">
+        <f>C56/D56</f>
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <v>15000</v>
+      </c>
+      <c r="G56">
+        <v>472.4</v>
+      </c>
+      <c r="H56" s="12">
+        <f>G56*1000/(C56*D56*F56)</f>
+        <v>3.0755208333333332E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>512</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="14">
+        <f>C57/D57</f>
+        <v>256</v>
+      </c>
+      <c r="F57">
+        <v>15000</v>
+      </c>
+      <c r="G57">
+        <v>493.7</v>
+      </c>
+      <c r="H57" s="12">
+        <f>G57*1000/(C57*D57*F57)</f>
+        <v>3.2141927083333334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C4:H57">
+    <sortCondition ref="F4:F57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
